--- a/docs/import.xlsx
+++ b/docs/import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pveris\Documents\Projects\nahradni-hodnoceni\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvori\OneDrive\Documents\nahradni-hodnoceni\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80908E8A-895A-40EC-B2AB-C16F74AF9DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7038845E-BCF7-4587-AA4F-5C3CF7E4AC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4272" yWindow="1872" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -86,10 +86,10 @@
     <t>Sirůček</t>
   </si>
   <si>
-    <t>3.D</t>
-  </si>
-  <si>
     <t>Sobolová</t>
+  </si>
+  <si>
+    <t>1.A</t>
   </si>
 </sst>
 </file>
@@ -130,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -445,16 +445,16 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,9 +474,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -494,9 +494,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -514,9 +514,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -534,9 +534,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -551,7 +551,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
